--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T16:39:51-07:00</t>
+    <t>2022-06-02T15:57:08-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
